--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_beg.xlsx
@@ -572,7 +572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...The books said: "If I can’t capture his heart, then I’ll keep him close to me." The books also said: "As long as he is by my side, it doesn’t matter if he hates me."
+    <t xml:space="preserve">[name="Tomimi"]  ...The books said: 'If I can’t capture his heart, then I’ll keep him close to me.' The books also said: 'As long as he is by my side, it doesn’t matter if he hates me.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_beg.xlsx
@@ -416,7 +416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  I won’t let you leave!
+    <t xml:space="preserve">[name="Tomimi"]  I won't let you leave!
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  B-because I don’t want to be without you again!
+    <t xml:space="preserve">[name="Tomimi"]  B-because I don't want to be without you again!
 </t>
   </si>
   <si>
@@ -436,11 +436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Does that mean you’re the one who organized the ceremony this time?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yes. If you didn’t show up in the middle of it, I’d have become the Great Chief.
+    <t xml:space="preserve">[name="Eunectes"]  Does that mean you're the one who organized the ceremony this time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Yes. If you didn't show up in the middle of it, I'd have become the Great Chief.
 </t>
   </si>
   <si>
@@ -456,11 +456,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm? What are you talking about, Doctor? What’s that about the ceremony?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re pretty smart, outsider.
+    <t xml:space="preserve">[name="Gavial"]  Hm? What are you talking about, Doctor? What's that about the ceremony?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  You're pretty smart, outsider.
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Ever since you left, most of the tribes dissolved into the many smaller tribes we know today. Without a central leader, the tribes couldn’t come together to do anything at all.
+    <t xml:space="preserve">[name="Eunectes"]  Ever since you left, most of the tribes dissolved into the many smaller tribes we know today. Without a central leader, the tribes couldn't come together to do anything at all.
 </t>
   </si>
   <si>
@@ -476,15 +476,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm? Wasn’t it you who organized the ceremony?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  It wasn’t me. The Big Ugly still needed an engine. It wasn’t done. I was planning to wait another year before contacting the other tribes to hold the ceremony, but then, all of a sudden, it was happening.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  It was unexpected, but I didn’t mind. I thought that, even an incomplete Big Ugly could have shocked the world.
+    <t xml:space="preserve">[name="Gavial"]  Hm? Wasn't it you who organized the ceremony?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  It wasn't me. The Big Ugly still needed an engine. It wasn't done. I was planning to wait another year before contacting the other tribes to hold the ceremony, but then, all of a sudden, it was happening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  It was unexpected, but I didn't mind. I thought that, even an incomplete Big Ugly could have shocked the world.
 </t>
   </si>
   <si>
@@ -504,11 +504,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  I’ve been studying for years to learn what I would need to convince the other tribes to make me the Great Chief. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  But, it’s not too late...The tribes under my command are waiting out there, and the Big Ugly has been defeated. No one can stop me from making Gavial stay!
+    <t xml:space="preserve">[name="Tomimi"]  I've been studying for years to learn what I would need to convince the other tribes to make me the Great Chief. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  But, it's not too late...The tribes under my command are waiting out there, and the Big Ugly has been defeated. No one can stop me from making Gavial stay!
 </t>
   </si>
   <si>
@@ -540,19 +540,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You’re such a pain. I let you out of my sight for one second and you run off to a place like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial, you’re bleeding!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? It’s fine, it’s just a little cut.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Come on, let’s go home.
+    <t xml:space="preserve">[name="Gavial"]  You're such a pain. I let you out of my sight for one second and you run off to a place like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Gavial, you're bleeding!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Huh? It's fine, it's just a little cut.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Come on, let's go home.
 </t>
   </si>
   <si>
@@ -564,15 +564,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Here I was thinking that you’re all grown up now, but you haven’t changed a bit...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’ve got important work to do, Tomimi. You can’t stop me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...The books said: 'If I can’t capture his heart, then I’ll keep him close to me.' The books also said: 'As long as he is by my side, it doesn’t matter if he hates me.'
+    <t xml:space="preserve">[name="Gavial"]  Here I was thinking that you're all grown up now, but you haven't changed a bit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I've got important work to do, Tomimi. You can't stop me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...The books said: 'If I can't capture his heart, then I'll keep him close to me.' The books also said: 'As long as he is by my side, it doesn't matter if he hates me.'
 </t>
   </si>
   <si>
@@ -580,23 +580,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Whew... She’s been slurping down trashy romance novels with a straw...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Now the Big Ugly is down, and you’re exhausted. You can’t beat me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  If you surrender, I-I won’t hurt you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You can’t keep me here, Tomimi.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...T-That’s not up to you!
+    <t xml:space="preserve">[name="Utage"]  Whew... She's been slurping down trashy romance novels with a straw...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Now the Big Ugly is down, and you're exhausted. You can't beat me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  If you surrender, I-I won't hurt you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You can't keep me here, Tomimi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...T-That's not up to you!
 </t>
   </si>
   <si>
